--- a/data/trans_camb/P32C-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P32C-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-1.373122476611441</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.4022669523701027</v>
+        <v>-0.4022669523701033</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-0.7984961869549115</v>
@@ -664,7 +664,7 @@
         <v>-0.9824843910750811</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.01787160110988326</v>
+        <v>0.01787160110988291</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.435298408393204</v>
+        <v>-3.685722738758206</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.255803591993494</v>
+        <v>-4.212538067048142</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.696386845434223</v>
+        <v>-3.523365084758233</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.198168990220796</v>
+        <v>-4.009845542888042</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.915578236017543</v>
+        <v>-3.195148877755017</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.924277108736802</v>
+        <v>-1.86569898363035</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.589944066340034</v>
+        <v>-2.514228067591846</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.034280272788356</v>
+        <v>-2.718518941560518</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.111964732630155</v>
+        <v>-2.412608785618717</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.719803159503349</v>
+        <v>1.797312279936722</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.945023351785353</v>
+        <v>1.111945184737788</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.144503890295251</v>
+        <v>3.01756018254076</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.676041936138897</v>
+        <v>0.6764469264425821</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.461924282940818</v>
+        <v>2.527979069206887</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9966803371562378</v>
+        <v>0.9329076353800897</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5932398923397603</v>
+        <v>0.7475188969963916</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.215156137229629</v>
+        <v>1.983044930909994</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.3306995763843478</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.09688102336690507</v>
+        <v>-0.09688102336690525</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-1</v>
@@ -769,7 +769,7 @@
         <v>-0.3405031053998936</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.006193824280225532</v>
+        <v>0.006193824280225412</v>
       </c>
     </row>
     <row r="8">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.583331751908755</v>
+        <v>-0.6023229084984304</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7030611774420364</v>
+        <v>-0.691497633600291</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6282726368048843</v>
+        <v>-0.654866767867839</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.6248060904627089</v>
+        <v>-0.5962660793818251</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6966291796486299</v>
+        <v>-0.6726735700096965</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.5578022802045314</v>
+        <v>-0.6053406977246579</v>
       </c>
     </row>
     <row r="9">
@@ -809,25 +809,25 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.6965294059319603</v>
+        <v>0.7707029847663255</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4026548021437795</v>
+        <v>0.5579128080806226</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.321926342785805</v>
+        <v>1.114958658121636</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>0.6188540780772236</v>
+        <v>0.5390548606779872</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.412644058497975</v>
+        <v>0.4246398470073011</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.23135811179026</v>
+        <v>1.196741420159706</v>
       </c>
     </row>
     <row r="10">
@@ -866,7 +866,7 @@
         <v>-0.3531283874848298</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.6017824797125055</v>
+        <v>-0.6017824797125053</v>
       </c>
     </row>
     <row r="11">
@@ -877,31 +877,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.115882382230002</v>
+        <v>-1.135521937900233</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.138192448066679</v>
+        <v>-1.117558575346513</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.672549619771994</v>
+        <v>-1.724029469289491</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.973486494914568</v>
+        <v>-3.822679340153172</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.854412441259714</v>
+        <v>-3.808525775024489</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.008582938133723</v>
+        <v>-3.866791662986055</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.228389542611323</v>
+        <v>-1.423648591132867</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.452444498477562</v>
+        <v>-1.361214074480495</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.577181547254718</v>
+        <v>-1.715470521874168</v>
       </c>
     </row>
     <row r="12">
@@ -912,31 +912,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.791686353641415</v>
+        <v>1.97316585271941</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.49285201393095</v>
+        <v>1.733252076901524</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.000434046095436</v>
+        <v>0.9579035321882522</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0111297322687708</v>
+        <v>0.2262667194746031</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0</v>
+        <v>0.1210899529290503</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2074839294459754</v>
+        <v>0.2006003076822326</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9573370856707569</v>
+        <v>0.8535251610921203</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6940825462094304</v>
+        <v>0.6775923730539506</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4099637618575848</v>
+        <v>0.4233538207611137</v>
       </c>
     </row>
     <row r="13">
@@ -971,7 +971,7 @@
         <v>-0.2468327706218856</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.420639184057463</v>
+        <v>-0.4206391840574629</v>
       </c>
     </row>
     <row r="14">
@@ -982,25 +982,25 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6149578710766619</v>
+        <v>-0.615274270335075</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6109031091895568</v>
+        <v>-0.5790251200096198</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.8372092678237399</v>
+        <v>-0.8078354449673077</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.6416126628393181</v>
+        <v>-0.6947693066679159</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7325694047319161</v>
+        <v>-0.7088290391030184</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.8137741032073333</v>
+        <v>-0.8249960866356539</v>
       </c>
     </row>
     <row r="15">
@@ -1011,25 +1011,25 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.816259544142342</v>
+        <v>2.571995317752965</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.927955351338225</v>
+        <v>2.393988135629707</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.546601685040407</v>
+        <v>1.41121680604916</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>1.354466764862137</v>
+        <v>1.071919411106172</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8718562469230394</v>
+        <v>0.9453654112343371</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4973412374148072</v>
+        <v>0.6137992182906628</v>
       </c>
     </row>
     <row r="16">
@@ -1079,31 +1079,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.129136045326913</v>
+        <v>-1.185498906014838</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.630793124024864</v>
+        <v>-1.637890330659394</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.268935701712066</v>
+        <v>-1.213020552032898</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.195494376908836</v>
+        <v>-0.9830435103347976</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.259464525578685</v>
+        <v>-1.247095242465024</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.444305717227566</v>
+        <v>-0.6627580916433758</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.858489860609198</v>
+        <v>-0.8413774980443633</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.199211456254589</v>
+        <v>-1.269345112182215</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.6288008468457493</v>
+        <v>-0.6977670567104888</v>
       </c>
     </row>
     <row r="18">
@@ -1114,31 +1114,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.443909046331625</v>
+        <v>1.330742420498417</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5527680098254841</v>
+        <v>0.5012020461126598</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.009909878594135</v>
+        <v>0.918092098634915</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.682812426236292</v>
+        <v>1.84027203092111</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.464522232612986</v>
+        <v>1.464166934117379</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.412059334706906</v>
+        <v>3.924553746477469</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9746406017441407</v>
+        <v>1.00407561824908</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5186566683922781</v>
+        <v>0.4245490134092804</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.380006873751615</v>
+        <v>1.409014718086814</v>
       </c>
     </row>
     <row r="19">
@@ -1184,25 +1184,25 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7079952953937959</v>
+        <v>-0.7663257564719109</v>
       </c>
       <c r="D20" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7793761420160371</v>
+        <v>-0.7968519697444729</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.6855014146377374</v>
+        <v>-0.6808601877214672</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.880287241472782</v>
+        <v>-0.8993847249747554</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.5337177439799614</v>
+        <v>-0.599449076272135</v>
       </c>
     </row>
     <row r="21">
@@ -1213,25 +1213,25 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3.214502512602184</v>
+        <v>2.916646695734005</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.482924541822152</v>
+        <v>2.010317482486153</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.536676749063335</v>
+        <v>2.223983431952673</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>2.228055997563793</v>
+        <v>2.183628556157026</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.233789059923931</v>
+        <v>1.336889194222353</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>3.200344824004626</v>
+        <v>2.624029916587157</v>
       </c>
     </row>
     <row r="22">
@@ -1261,7 +1261,7 @@
         <v>0.3364098990309647</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.8991088465166885</v>
+        <v>0.8991088465166889</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.004014097965479406</v>
@@ -1270,7 +1270,7 @@
         <v>0.3340094924571388</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.141847794373119</v>
+        <v>-0.1418477943731192</v>
       </c>
     </row>
     <row r="23">
@@ -1281,31 +1281,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.673346507375582</v>
+        <v>-1.578067716432118</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.789800268526984</v>
+        <v>-1.768171121520302</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.866511605781857</v>
+        <v>-2.826289356237654</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.062691227125625</v>
+        <v>-3.856796326784314</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.924545305110337</v>
+        <v>-1.963327930638957</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.256845772135344</v>
+        <v>-1.094773457047574</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.455043620625007</v>
+        <v>-1.663540025188798</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.079564972407305</v>
+        <v>-1.381129414762697</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.655593643598186</v>
+        <v>-1.489747954741297</v>
       </c>
     </row>
     <row r="24">
@@ -1316,31 +1316,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.72566684055213</v>
+        <v>2.954943073834392</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.368790668055109</v>
+        <v>2.222356344867522</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4296403736422367</v>
+        <v>0.4903017254593127</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.321937952189722</v>
+        <v>2.262580248599684</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.689973363989516</v>
+        <v>3.722472449094262</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.600652645550928</v>
+        <v>1.519771316417361</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.765426486683815</v>
+        <v>1.577189112720445</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.082174087623705</v>
+        <v>1.035962101423068</v>
       </c>
     </row>
     <row r="25">
@@ -1375,7 +1375,7 @@
         <v>0.3110945811881122</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.1321162457340208</v>
+        <v>-0.132116245734021</v>
       </c>
     </row>
     <row r="26">
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9973239025602879</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>-1</v>
@@ -1395,14 +1395,12 @@
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="inlineStr"/>
-      <c r="I26" s="6" t="n">
-        <v>-0.9010564158957234</v>
-      </c>
+      <c r="I26" s="6" t="inlineStr"/>
       <c r="J26" s="6" t="n">
-        <v>-0.682857274263333</v>
+        <v>-0.8297498339753644</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.8533890889992831</v>
+        <v>-0.8671025388794759</v>
       </c>
     </row>
     <row r="27">
@@ -1412,24 +1410,20 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C27" s="6" t="n">
-        <v>6.326023413476825</v>
-      </c>
+      <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>5.807202177424596</v>
+        <v>11.94349452597682</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
-      <c r="I27" s="6" t="n">
-        <v>5.103138543992805</v>
-      </c>
+      <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="n">
-        <v>5.603692242154478</v>
+        <v>3.876234718450952</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>3.445765198807424</v>
+        <v>3.003922893540475</v>
       </c>
     </row>
     <row r="28">
@@ -1450,7 +1444,7 @@
         <v>-0.06883362872148607</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-0.4989159275770302</v>
+        <v>-0.4989159275770301</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-0.6367599248076545</v>
@@ -1459,7 +1453,7 @@
         <v>-0.3763978371792064</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.3628942161544465</v>
+        <v>0.3628942161544463</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-0.0138495202676607</v>
@@ -1468,7 +1462,7 @@
         <v>-0.2133877089715215</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-0.2197311237438344</v>
+        <v>-0.2197311237438342</v>
       </c>
     </row>
     <row r="29">
@@ -1479,31 +1473,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.503210654272891</v>
+        <v>-0.5257037481575155</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.8473252173840847</v>
+        <v>-0.949728471088686</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.258871069091152</v>
+        <v>-1.353998319426579</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.626654766975312</v>
+        <v>-1.620592770185195</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.463685272287462</v>
+        <v>-1.380232754562576</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.7135091264326604</v>
+        <v>-0.6869627828084925</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.6899885491747164</v>
+        <v>-0.666905510760507</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.8425026611003842</v>
+        <v>-0.8494754526721821</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.8104622046430383</v>
+        <v>-0.8530144216377877</v>
       </c>
     </row>
     <row r="30">
@@ -1514,31 +1508,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.339923270887189</v>
+        <v>1.180226002521597</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8009796276770916</v>
+        <v>0.7810517734633841</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2319660551205425</v>
+        <v>0.2509343334266989</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.04226522412365027</v>
+        <v>0.08121815965559596</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2978547899366826</v>
+        <v>0.4315520301378895</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.475262289584695</v>
+        <v>1.580994966395961</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.6451467320184607</v>
+        <v>0.5989717856921682</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.3968550025557994</v>
+        <v>0.4738619763432397</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.4260074661123167</v>
+        <v>0.4497960585898104</v>
       </c>
     </row>
     <row r="31">
@@ -1555,7 +1549,7 @@
         <v>-0.04062065029064214</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.2944242486552487</v>
+        <v>-0.2944242486552486</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.6849267151570653</v>
@@ -1564,7 +1558,7 @@
         <v>-0.4048699111980902</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3903448281473494</v>
+        <v>0.3903448281473492</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.009555523781944958</v>
@@ -1573,7 +1567,7 @@
         <v>-0.1472275781720296</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.1516042388464873</v>
+        <v>-0.1516042388464872</v>
       </c>
     </row>
     <row r="32">
@@ -1584,31 +1578,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2602909946081284</v>
+        <v>-0.2548084140269791</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4082575176832505</v>
+        <v>-0.4558139520246813</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6056903448339791</v>
+        <v>-0.6240847734391172</v>
       </c>
       <c r="F32" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.9080823421854919</v>
+        <v>-0.85462818697598</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.5861581130442348</v>
+        <v>-0.5790003934543809</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3966422671126293</v>
+        <v>-0.3645233245645884</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4691375919059398</v>
+        <v>-0.463349979661944</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.4793947598044601</v>
+        <v>-0.4757975216691811</v>
       </c>
     </row>
     <row r="33">
@@ -1619,31 +1613,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.021503223839622</v>
+        <v>0.9249976716022481</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.6302900251137371</v>
+        <v>0.6151939157831496</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1848238560952116</v>
+        <v>0.2149155679756862</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5037965608860752</v>
+        <v>0.6695557890937688</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.8271680591647379</v>
+        <v>1.107293774786391</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>3.228551184242434</v>
+        <v>3.739647385498606</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.577850760574962</v>
+        <v>0.5370372780271255</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3678123795115295</v>
+        <v>0.4755890334173691</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3638490166370053</v>
+        <v>0.3968150342651178</v>
       </c>
     </row>
     <row r="34">
